--- a/KiCad_PCB/Riscduino_Uno_Rev1.3/Riscduino_Uno_Rev1.3_bom.xlsx
+++ b/KiCad_PCB/Riscduino_Uno_Rev1.3/Riscduino_Uno_Rev1.3_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\Riscduino_Uno_Rev1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\Riscduino_Uno_Rev1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D99E6-9F3B-464E-A841-AC05C23EE72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DE3B1E-1B38-4C8F-95C4-EA6119C17216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{940FBDFA-BC32-47FA-AB3A-6DFE923B9FB3}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Riscduino_Uno'!$A$1:$H$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Riscduino_Uno!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -373,9 +374,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -386,7 +385,18 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -394,17 +404,48 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -414,7 +455,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -422,12 +463,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -436,18 +499,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -456,68 +519,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A6A2B90B-546B-45E4-A43D-A524ABA88801}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -527,40 +582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{A09B4838-3E70-406A-A467-878DCFC49A6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="Id" tableColumnId="1"/>
-      <queryTableField id="2" name="Designator" tableColumnId="2"/>
-      <queryTableField id="3" name="Footprint" tableColumnId="3"/>
-      <queryTableField id="4" name="Quantity" tableColumnId="4"/>
-      <queryTableField id="5" name="Designation" tableColumnId="5"/>
-      <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1" tableColumnId="7"/>
-      <queryTableField id="8" name="_1" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDF34556-8791-4046-918C-CC6E1A90C1A3}" name="Riscduino_Uno" displayName="Riscduino_Uno" ref="A1:H35" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H35" xr:uid="{CDF34556-8791-4046-918C-CC6E1A90C1A3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C60A84A9-87D1-4812-9709-E887CA6DE3C2}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{578CB6E7-D84B-4103-B814-BF9CBB96DBD9}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F2E95084-855A-469A-9873-A927AD25F29B}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8D674856-0016-47E1-9D75-E1BE35E1206A}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{DD112403-D205-4E50-BC6C-7ADA369C3121}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{10850BB1-D32F-4579-8792-B994A22BCDC9}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4571041F-882F-400D-9C03-900ECBC6454E}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E34BA495-6F5A-41C4-9865-F43D52D9EF8B}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,19 +881,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99F7D3B-EE5A-441E-B2DA-732049A46438}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="56" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" hidden="1" customWidth="1"/>
@@ -880,16 +904,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -906,215 +930,215 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="14">
         <v>2</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1123,440 +1147,440 @@
       <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="14">
         <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="14">
         <v>2</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="14">
         <v>7</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="14">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="14">
         <v>2</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="14">
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="14">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="14">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -1565,24 +1589,24 @@
       <c r="C27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1591,24 +1615,24 @@
       <c r="C28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -1617,29 +1641,33 @@
       <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="18" t="s">
         <v>92</v>
       </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="12">
         <v>1</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -1648,15 +1676,15 @@
       <c r="C31" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>2</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -1665,15 +1693,15 @@
       <c r="C32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="12">
         <v>3</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -1682,80 +1710,77 @@
       <c r="C33" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="19">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
